--- a/spreadsheet/macrofree/azurefrontdoor_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurefrontdoor_sg_checklist.es.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Puede seleccionar el mejor recurso de origen mediante una serie de pasos de decisión y su diseño. El origen seleccionado atiende el tráfico dentro del rango de latencia permitido en la proporción de pesos especificada.</t>
+          <t>Puede seleccionar el mejor recurso de origen mediante una serie de pasos de decisión y su diseño. El origen seleccionado atiende el tráfico dentro del rango de latencia permitido en la proporción de ponderaciones especificada.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1129,12 +1129,12 @@
       <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Configure sondeos de estado en el origen. Configure Azure Front Door para realizar comprobaciones de estado y determinar si la instancia de back-end está disponible y lista para seguir recibiendo solicitudes.</t>
+          <t>Configure sondeos de estado en el origen. Configure Azure Front Door para realizar comprobaciones de estado a fin de determinar si la instancia de back-end está disponible y lista para seguir recibiendo solicitudes.</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Los sondeos de estado habilitados forman parte de la implementación del patrón de supervisión de estado. Los sondeos de estado se aseguran de que Azure Front Door solo enruta el tráfico a las instancias que están en buen estado para controlar las solicitudes.  Para obtener más información, consulte Procedimientos recomendados para sondeos de estado.</t>
+          <t>Los sondeos de estado habilitados forman parte de la implementación del patrón de supervisión de estado. Los sondeos de estado se aseguran de que Azure Front Door solo enruta el tráfico a las instancias que están en buen estado para controlar las solicitudes.  Para obtener más información, consulte Procedimientos recomendados sobre sondeos de estado.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1197,7 +1197,7 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de host en Azure Front Door y en su origen. Azure Front Door puede reescribir el encabezado de host de las solicitudes entrantes, lo que resulta útil cuando hay varios nombres de dominio personalizados que se enrutan a un origen. Sin embargo, reescribir el encabezado del host puede causar problemas con las cookies de solicitud y el redireccionamiento de URL.</t>
+          <t>Use el mismo nombre de host en Azure Front Door y en el origen. Azure Front Door puede reescribir el encabezado de host de las solicitudes entrantes, lo que resulta útil cuando hay varios nombres de dominio personalizados que se enrutan a un origen. Sin embargo, reescribir el encabezado del host puede causar problemas con las cookies de solicitud y el redireccionamiento de URL.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Los conjuntos de reglas predeterminados se actualizan con frecuencia en función de los 10 tipos de ataque principales de OWASP y de la información de Microsoft Threat Intelligence.  Los conjuntos de reglas especializadas detectan determinados casos de uso. Por ejemplo, las reglas de bots clasifican los bots como buenos, malos o desconocidos en función de las direcciones IP del cliente. También bloquean los bots maliciosos y las direcciones IP conocidas y restringen el tráfico en función de la ubicación geográfica de las personas que llaman.  Mediante el uso de una combinación de conjuntos de reglas, puede detectar y bloquear ataques con varias intenciones.</t>
+          <t>Los conjuntos de reglas predeterminados se actualizan con frecuencia en función de los 10 tipos de ataque principales de OWASP y de la información de Microsoft Threat Intelligence.  Los conjuntos de reglas especializadas detectan ciertos casos de uso. Por ejemplo, las reglas de bots clasifican los bots como buenos, malos o desconocidos en función de las direcciones IP del cliente. También bloquean los bots maliciosos y las direcciones IP conocidas y restringen el tráfico en función de la ubicación geográfica de las personas que llaman.  Mediante el uso de una combinación de conjuntos de reglas, puede detectar y bloquear ataques con varias intenciones.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>TLS garantiza que los intercambios de datos entre el explorador, Azure Front Door y los orígenes back-end estén cifrados para evitar la manipulación.  Key Vault ofrece compatibilidad con certificados administrados y renovación y rotación sencillas de certificados.</t>
+          <t>TLS garantiza que los intercambios de datos entre el explorador, Azure Front Door y los orígenes de back-end estén cifrados para evitar la manipulación.  Key Vault ofrece compatibilidad con certificados administrados y renovación y rotación sencillas de certificados.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Cuando se habilita el redireccionamiento, Azure Front Door redirige automáticamente a los clientes que usan el protocolo anterior para usar HTTPS para una experiencia segura.</t>
+          <t>Cuando se habilita el redireccionamiento, Azure Front Door redirige automáticamente a los clientes que usan un protocolo anterior para usar HTTPS para una experiencia segura.</t>
         </is>
       </c>
       <c r="E21" s="21" t="n"/>
@@ -1537,7 +1537,7 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Captura de registros y métricas.  Incluya registros de actividad de recursos, registros de acceso, registros de sondeo de estado y registros de WAF. Configura alertas.</t>
+          <t>Capture registros y métricas.  Incluya registros de actividad de recursos, registros de acceso, registros de sondeo de estado y registros de WAF. Configura alertas.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door puede emitir y administrar certificados automáticamente. Esta función elimina la necesidad de renovar certificados y minimiza el riesgo de una interrupción debido a un certificado TLS no válido o caducado.</t>
+          <t>Azure Front Door puede emitir y administrar certificados por usted. Esta función elimina la necesidad de renovar certificados y minimiza el riesgo de una interrupción debido a un certificado TLS no válido o caducado.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -6282,7 +6282,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">

--- a/spreadsheet/macrofree/azurefrontdoor_sg_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azurefrontdoor_sg_checklist.es.xlsx
@@ -1061,7 +1061,7 @@
       <c r="B8" s="21" t="n"/>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Elija un método de enrutamiento que admita su estrategia de implementación.  El método ponderado, que distribuye el tráfico en función del coeficiente de ponderación configurado, admite modelos activo-activo.  Un valor basado en prioridades que configura la región primaria para recibir todo el tráfico y enviar tráfico a la región secundaria como copia de seguridad admite modelos activo-pasivo.  Combine los métodos anteriores con la latencia para que el origen con la latencia más baja reciba tráfico.</t>
+          <t>Elija un método de enrutamiento que admita su estrategia de implementación.  El método ponderado, que distribuye el tráfico en función del coeficiente de ponderación configurado, admite modelos activo-activo.  Un valor basado en prioridad que configura la región primaria para recibir todo el tráfico y enviarlo a la región secundaria como copia de seguridad admite modelos activo-pasivo.  Combine los métodos anteriores con la latencia para que el origen con la latencia más baja reciba tráfico.</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Los sondeos de estado habilitados forman parte de la implementación del patrón de supervisión de estado. Los sondeos de estado se aseguran de que Azure Front Door solo enruta el tráfico a las instancias que están en buen estado para controlar las solicitudes.  Para obtener más información, consulte Procedimientos recomendados sobre sondeos de estado.</t>
+          <t>Los sondeos de estado habilitados forman parte de la implementación del patrón de supervisión de estado. Los sondeos de estado se aseguran de que Azure Front Door solo enruta el tráfico a las instancias que están en buen estado para controlar las solicitudes.  Para obtener más información, consulte Procedimientos recomendados para sondeos de estado.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1163,7 +1163,7 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Establezca un tiempo de espera para reenviar solicitudes al back-end.  Ajuste la configuración de tiempo de espera según las necesidades de sus terminales. Si no lo hace, Azure Front Door podría cerrar la conexión antes de que el origen envíe la respuesta.  También puede reducir el tiempo de espera predeterminado para Azure Front Door si todos los orígenes tienen un tiempo de espera más corto.  Para obtener más información, consulte Solución de problemas de solicitudes que no responden.</t>
+          <t>Establezca un tiempo de espera para reenviar solicitudes al back-end.  Ajuste la configuración del tiempo de espera según las necesidades de sus terminales. Si no lo hace, Azure Front Door podría cerrar la conexión antes de que el origen envíe la respuesta.  También puede reducir el tiempo de espera predeterminado para Azure Front Door si todos los orígenes tienen un tiempo de espera más corto.  Para obtener más información, consulte Solución de problemas de solicitudes que no responden.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
@@ -1197,7 +1197,7 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Use el mismo nombre de host en Azure Front Door y en el origen. Azure Front Door puede reescribir el encabezado de host de las solicitudes entrantes, lo que resulta útil cuando hay varios nombres de dominio personalizados que se enrutan a un origen. Sin embargo, reescribir el encabezado del host puede causar problemas con las cookies de solicitud y el redireccionamiento de URL.</t>
+          <t>Use el mismo nombre de host en Azure Front Door y en su origen. Azure Front Door puede reescribir el encabezado de host de las solicitudes entrantes, lo que resulta útil cuando hay varios nombres de dominio personalizados que se enrutan a un origen. Sin embargo, reescribir el encabezado del host puede causar problemas con las cookies de solicitud y el redireccionamiento de URL.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Con la afinidad de sesión, las conexiones de usuario permanecen en el mismo origen durante la sesión de usuario. Si ese origen deja de estar disponible, es posible que la experiencia del usuario se vea interrumpida.</t>
+          <t>Con la afinidad de sesión, las conexiones de usuario permanecen en el mismo origen durante la sesión de usuario. Si ese origen deja de estar disponible, es posible que se interrumpa la experiencia del usuario.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Los conjuntos de reglas predeterminados se actualizan con frecuencia en función de los 10 tipos de ataque principales de OWASP y de la información de Microsoft Threat Intelligence.  Los conjuntos de reglas especializadas detectan ciertos casos de uso. Por ejemplo, las reglas de bots clasifican los bots como buenos, malos o desconocidos en función de las direcciones IP del cliente. También bloquean los bots maliciosos y las direcciones IP conocidas y restringen el tráfico en función de la ubicación geográfica de las personas que llaman.  Mediante el uso de una combinación de conjuntos de reglas, puede detectar y bloquear ataques con varias intenciones.</t>
+          <t>Los conjuntos de reglas predeterminados se actualizan con frecuencia en función de los 10 tipos de ataque principales de OWASP y de la información de Microsoft Threat Intelligence.  Los conjuntos de reglas especializadas detectan determinados casos de uso. Por ejemplo, las reglas de bots clasifican los bots como buenos, malos o desconocidos en función de las direcciones IP del cliente. También bloquean los bots maliciosos y las direcciones IP conocidas, y restringen el tráfico en función de la ubicación geográfica de las personas que llaman.  Mediante el uso de una combinación de conjuntos de reglas, puede detectar y bloquear ataques con varias intenciones.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1367,7 +1367,7 @@
       <c r="B17" s="21" t="n"/>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Habilite TLS de extremo a extremo, redireccionamiento de HTTP a HTTPS y certificados TLS administrados cuando corresponda.  Revise los procedimientos recomendados de TLS para Azure Front Door.  Utilice la versión 1.2 de TLS como la versión mínima permitida con cifrados que sean relevantes para su aplicación.  Los certificados administrados de Azure Front Door deben ser la opción predeterminada para facilitar las operaciones. Sin embargo, si desea administrar el ciclo de vida de los certificados, use sus propios certificados en los puntos de conexión de dominio personalizado de Azure Front Door y almacénelos en Key Vault.</t>
+          <t>Habilite TLS de extremo a extremo, redireccionamiento de HTTP a HTTPS y certificados TLS administrados cuando corresponda.  Revise los procedimientos recomendados de TLS para Azure Front Door.  Utilice la versión 1.2 de TLS como la versión mínima permitida con cifrados que sean relevantes para su aplicación.  Los certificados administrados de Azure Front Door deben ser la opción predeterminada para facilitar las operaciones. Sin embargo, si desea administrar el ciclo de vida de los certificados, use sus propios certificados en los puntos de conexión de dominio personalizados de Azure Front Door y almacénelos en Key Vault.</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door puede emitir y administrar certificados por usted. Esta función elimina la necesidad de renovar certificados y minimiza el riesgo de una interrupción debido a un certificado TLS no válido o caducado.</t>
+          <t>Azure Front Door puede emitir y administrar certificados automáticamente. Esta función elimina la necesidad de renovar certificados y minimiza el riesgo de una interrupción debido a un certificado TLS no válido o caducado.</t>
         </is>
       </c>
       <c r="E24" s="21" t="n"/>
@@ -1673,7 +1673,7 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Habilite el almacenamiento en caché.  Puede optimizar las cadenas de consulta para el almacenamiento en caché. En el caso de contenido puramente estático, omita las cadenas de consulta para maximizar el uso de la memoria caché.  Si la aplicación usa cadenas de consulta, considere la posibilidad de incluirlas en la clave de caché. La inclusión de las cadenas de consulta en la clave de caché permite a Azure Front Door servir respuestas almacenadas en caché u otras respuestas, en función de la configuración.</t>
+          <t>Habilite el almacenamiento en caché.  Puede optimizar las cadenas de consulta para el almacenamiento en caché. En el caso de contenido puramente estático, omita las cadenas de consulta para maximizar el uso de la memoria caché.  Si la aplicación usa cadenas de consulta, considere incluirlas en la clave de caché. La inclusión de las cadenas de consulta en la clave de caché permite a Azure Front Door servir respuestas almacenadas en caché u otras respuestas, en función de la configuración.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -1773,7 +1773,7 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Evalúe si debe habilitar la afinidad de sesión cuando las solicitudes del mismo usuario deben dirigirse al mismo servidor back-end.  Desde el punto de vista de la confiabilidad, no recomendamos este enfoque. Si usa esta opción, la aplicación debería recuperarse correctamente sin interrumpir las sesiones de usuario.  También hay una compensación en el equilibrio de carga, ya que restringe la flexibilidad de distribuir el tráfico entre varios back-ends de manera uniforme.</t>
+          <t>Evalúe si debe habilitar la afinidad de sesión cuando las solicitudes del mismo usuario deben dirigirse al mismo servidor back-end.  Desde el punto de vista de la confiabilidad, no se recomienda este enfoque. Si usa esta opción, la aplicación debería recuperarse correctamente sin interrumpir las sesiones de usuario.  También hay una compensación en el equilibrio de carga, ya que restringe la flexibilidad de distribuir el tráfico entre varios back-ends de manera uniforme.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
